--- a/biology/Histoire de la zoologie et de la botanique/Roger_de_Lessert/Roger_de_Lessert.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Roger_de_Lessert/Roger_de_Lessert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roger de Lessert, né le 11 septembre 1878 à Lavigny dans le canton de Vaud et mort en 1945 dans la même ville, est un zoologue, arachnologiste et entomologiste suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Roger de Lessert est diplômé de l'Université de Genève en 1904 avec une thèse en zoologie sur la faune arachnologique des environs de Genève, suggérée par son professeur et mentor Émile Yung.
 Les recherches poursuivit par Roger de Lessert dans la réalisation de sa thèse, le conduit à la découverte d'une soixantaine d'espèces nouvelles. Passionné dans le domaine arachnologique, il voyagea jusqu'en 1910 à travers la Suisse, se consacrant à la collection et au classement des araignées.
@@ -546,7 +560,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lessertia Smith, 1908, genre de la famille des Linyphiidae
 Lessertina Lawrence, 1942, genre de la famille des Eutichuridae
@@ -582,7 +598,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Genres et sous-genres :
 Avakubia Lessert, 1927
@@ -944,7 +962,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Roger de Lessert, « Observations sur les Araignées du Bassin du Léman et de quelques autres localités suisses », Revue suisse de zoologie, MHNG, vol. 12,‎ 1904, p. 269–450 (ISSN 0035-418X, DOI 10.5962/BHL.PART.75168)
 Roger de Lessert, « Note sur trois espèces d'araignées du genre Drassodes Westring », Revue suisse de zoologie, MHNG, vol. 13,‎ 1905a, p. 185–194 (ISSN 0035-418X, DOI 10.5962/BHL.PART.82521)
@@ -1003,6 +1023,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
